--- a/EFS/cap05-Definicion_Topologia_Usuarios/Definición y tipologia de usuarios_150324.xlsx
+++ b/EFS/cap05-Definicion_Topologia_Usuarios/Definición y tipologia de usuarios_150324.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="713" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="713" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
@@ -244,7 +244,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="103">
   <si>
     <t>10% de su tiempo - (4hrs / semanales)</t>
   </si>
@@ -283,39 +283,10 @@
   </si>
   <si>
     <t>Administración de Pedidos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cristina Egurza</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Jessica Hernandez, Marta Jordana, Vanesa Martinez, Andrea Ezquerro, Asistente Andrea, Ainara Lecumberri, Iratxe Lopez</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Introducir o modificar valores de las ventas        Introducir información cuentas nuevas (a través de alguien?)     </t>
   </si>
   <si>
     <t>Datos clientes      
 …</t>
-  </si>
-  <si>
-    <t>Conversión automática de ofertas en pedidos              Mantenerse informado novedades (Ingeflash)               Informesde pipeline,previsiones y probabilidades por filiales y globales</t>
   </si>
   <si>
     <t>Management Financiero</t>
@@ -549,9 +520,6 @@
     <t>PC portátil</t>
   </si>
   <si>
-    <t>Eduardo Cordovín, AS Italia, AS USA, AS Francia</t>
-  </si>
-  <si>
     <t>Solicitudes de nuevas cuentas
 Actividades comerciales (llamadas reactivas)
 Ofertas de repuestos
@@ -585,16 +553,7 @@
     <t>PC Desktop</t>
   </si>
   <si>
-    <t>Vanesa Martínez, ASR Italia, ASR Francia, ASR USA, ASR Fábrica</t>
-  </si>
-  <si>
     <t>Fichas de Empresas FV</t>
-  </si>
-  <si>
-    <t>Solicitudes de nuevas cuentas
-Actividades comerciales (llamadas reactivas)
-Presupuestos de reparaciones
-Incidencias técnicas (soporte al cliente)</t>
   </si>
   <si>
     <t>Realización de presupuestos (mecanización, calidad)
@@ -603,16 +562,6 @@
   </si>
   <si>
     <t>Consulta de cuentas FV (Fichas de empresa)</t>
-  </si>
-  <si>
-    <t>Solicitudes de nuevas cuentas
-Oportunidades
-Cuentas comerciales
-Actividades comerciales (llamadas, visitas)
-After-Sales Field
-Ofertas
-Incidencias técnicas (soporte al cliente)
-Noticias relacionadas con sus cuentas</t>
   </si>
   <si>
     <t>HQ FV Sarriguren, Fábrica Sesma, Fábrica Milwaukee, Fábrica Campinas</t>
@@ -675,6 +624,67 @@
   <si>
     <t xml:space="preserve">Previsiones financieras y pipeline  filiales y globales
  Mantenerse informado novedades (Ingeflash)              </t>
+  </si>
+  <si>
+    <t>Eduardo Cordovín, Marta Jordana, AS Italia, AS USA, AS Francia</t>
+  </si>
+  <si>
+    <t>Solicitudes de nuevas cuentas
+Oportunidades
+Cuentas comerciales
+Actividades comerciales (llamadas, visitas)
+After-Sales Field
+Ofertas (de equipos y de repuestos)
+Incidencias técnicas (soporte al cliente)
+Noticias relacionadas con sus cuentas</t>
+  </si>
+  <si>
+    <t>Vanesa Martínez G, Marta Jordana, ASR Italia (Luca Ferraresi), ASR Francia, ASR USA, ASR Fábrica (Javier Ramírez)</t>
+  </si>
+  <si>
+    <t>Solicitudes de nuevas cuentas
+Actividades comerciales (llamadas reactivas, retrofits)
+Presupuestos de reparaciones
+Incidencias técnicas (soporte al cliente) - Fase 2 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducir o modificar valores de las ventas
+Introducir información cuentas nuevas (a través de alguien?)     </t>
+  </si>
+  <si>
+    <t>15% de su tiempo - (6 hrs / semanales)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cristina Egurza</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Jessica Hernández, Marta Jordana, Vanesa Martínez, Andrea Ezquerro, Asistente Andrea, Ainara Lecumberri, Iratxe López</t>
+    </r>
+  </si>
+  <si>
+    <t>Conversión automática de ofertas en pedidos
+Mantenerse informado novedades (Ingeflash)
+Control de precios (con alertas por umbrales)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informes marcha negocio filiales y global
+Status proyectos y pipelines       </t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1146,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,7 +1158,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1162,24 +1172,24 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -1190,21 +1200,21 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1213,15 +1223,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -1232,7 +1242,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -1246,49 +1256,49 @@
     </row>
     <row r="8" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1296,58 +1306,58 @@
     </row>
     <row r="12" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1369,47 +1379,47 @@
   <sheetData>
     <row r="3" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1421,7 +1431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1434,55 +1444,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1490,64 +1500,64 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1561,8 +1571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,55 +1584,55 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1630,64 +1640,64 @@
     </row>
     <row r="8" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1714,7 +1724,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -1722,39 +1732,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -1762,7 +1772,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>4</v>
@@ -1770,64 +1780,64 @@
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1841,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1854,7 +1864,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
@@ -1862,15 +1872,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -1878,7 +1888,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1886,7 +1896,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -1894,7 +1904,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
@@ -1902,53 +1912,53 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -1956,7 +1966,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -1964,10 +1974,10 @@
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1980,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,23 +2003,23 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -2017,7 +2027,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -2025,7 +2035,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -2033,18 +2043,18 @@
     </row>
     <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -2052,45 +2062,45 @@
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
@@ -2098,15 +2108,15 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>11</v>
@@ -2138,95 +2148,95 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2255,97 +2265,97 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2362,7 +2372,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,95 +2384,95 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
